--- a/data/fujing_dataset/Results sample_Data_20221011.xlsx
+++ b/data/fujing_dataset/Results sample_Data_20221011.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xluhon/Documents/GitHub/Yli_GEMs/data/fujing_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE34D49-BB3B-3543-AF02-31AFDEDAE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852E572-FC7E-1B4D-8154-EF76B7821B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36200" yWindow="9640" windowWidth="34140" windowHeight="17820" xr2:uid="{B9F56D9D-CEEC-E54C-A0C7-3282913CF77D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21500" activeTab="1" xr2:uid="{B9F56D9D-CEEC-E54C-A0C7-3282913CF77D}"/>
   </bookViews>
   <sheets>
     <sheet name="for_calculation" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="fba" sheetId="7" r:id="rId3"/>
-    <sheet name="Raw data" sheetId="1" r:id="rId4"/>
-    <sheet name="Calculation" sheetId="3" r:id="rId5"/>
-    <sheet name="Final(to be updated)" sheetId="4" r:id="rId6"/>
-    <sheet name="Lipid 4 genes" sheetId="5" r:id="rId7"/>
-    <sheet name="For IA project" sheetId="6" r:id="rId8"/>
+    <sheet name="average" sheetId="11" r:id="rId2"/>
+    <sheet name="original co2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="fba" sheetId="7" r:id="rId5"/>
+    <sheet name="Raw data" sheetId="1" r:id="rId6"/>
+    <sheet name="Calculation" sheetId="3" r:id="rId7"/>
+    <sheet name="Final(to be updated)" sheetId="4" r:id="rId8"/>
+    <sheet name="Lipid 4 genes" sheetId="5" r:id="rId9"/>
+    <sheet name="For IA project" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -382,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="169">
   <si>
     <t>Sample number</t>
   </si>
@@ -870,6 +872,27 @@
   <si>
     <t>s24</t>
   </si>
+  <si>
+    <t>s75</t>
+  </si>
+  <si>
+    <t>s76</t>
+  </si>
+  <si>
+    <t>25+27+28</t>
+  </si>
+  <si>
+    <t>37+38+40</t>
+  </si>
+  <si>
+    <t>41+43+44</t>
+  </si>
+  <si>
+    <t>9+10+12</t>
+  </si>
+  <si>
+    <t>22+23+24</t>
+  </si>
 </sst>
 </file>
 
@@ -883,7 +906,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -944,8 +967,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1090,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1084,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1222,6 +1258,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F6C0E1-0E4A-C245-8209-65DEC7D5CACA}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,6 +1676,8 @@
     <col min="11" max="11" width="19.83203125" style="85" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
     <col min="14" max="14" width="37.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="85" customFormat="1" x14ac:dyDescent="0.2">
@@ -1879,7 +1929,7 @@
       <c r="B5" s="85">
         <v>1.1943090177774007</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="93">
         <v>2.7758138828653993</v>
       </c>
       <c r="D5" s="89">
@@ -1929,7 +1979,7 @@
       <c r="B6" s="85">
         <v>1.1089643966883851</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="93">
         <v>2.4452786295865496</v>
       </c>
       <c r="D6" s="89">
@@ -1979,7 +2029,7 @@
       <c r="B7" s="85">
         <v>1.0929198054171489</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="93">
         <v>2.5401650021710811</v>
       </c>
       <c r="D7" s="89">
@@ -2030,7 +2080,7 @@
         <v>1.5781890752580612</v>
       </c>
       <c r="C8" s="88">
-        <v>3.9522851394078766</v>
+        <v>3.5929864903707966</v>
       </c>
       <c r="D8" s="89">
         <v>5.0301810865191365</v>
@@ -2221,7 +2271,7 @@
         <v>1.4279785501174362</v>
       </c>
       <c r="C11" s="86">
-        <v>3.0974474165280972</v>
+        <v>2.7532865924694199</v>
       </c>
       <c r="D11" s="89">
         <v>6.1948948330561837</v>
@@ -2286,7 +2336,7 @@
         <v>1.5596744237691138</v>
       </c>
       <c r="C12" s="86">
-        <v>3.1555590986394533</v>
+        <v>2.657312925170066</v>
       </c>
       <c r="D12" s="89">
         <v>5.6467899659863878</v>
@@ -2351,7 +2401,7 @@
         <v>1.5160957433010103</v>
       </c>
       <c r="C13" s="86">
-        <v>3.1512720897608379</v>
+        <v>2.6785812762967116</v>
       </c>
       <c r="D13" s="89">
         <v>4.726908134641266</v>
@@ -2466,7 +2516,7 @@
         <v>1.2451360160255045</v>
       </c>
       <c r="C15" s="85">
-        <v>3.2037932912568508</v>
+        <v>2.6819633233627402</v>
       </c>
       <c r="D15" s="89">
         <v>6.34</v>
@@ -2561,18 +2611,4079 @@
         <v>0.10638297872340426</v>
       </c>
     </row>
-    <row r="17" spans="4:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="89"/>
+    <row r="17" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="93">
+        <v>1.4433364286002668</v>
+      </c>
+      <c r="C17" s="93">
+        <v>3.7818833779222061</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93">
+        <v>0</v>
+      </c>
+      <c r="F17" s="93">
+        <v>0</v>
+      </c>
+      <c r="G17" s="93">
+        <v>0</v>
+      </c>
+      <c r="H17" s="93">
+        <v>0</v>
+      </c>
+      <c r="I17" s="93">
+        <v>0</v>
+      </c>
+      <c r="J17" s="93">
+        <v>97.080972857370355</v>
+      </c>
+      <c r="K17" s="95">
+        <v>5.2495057488951202</v>
+      </c>
+      <c r="M17" s="95">
+        <v>5.2495057488951202</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="93">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="93">
+        <v>0.10638297872340426</v>
+      </c>
     </row>
-    <row r="18" spans="4:4" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="89"/>
+    <row r="18" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="93">
+        <v>1.251689179638247</v>
+      </c>
+      <c r="C18" s="93">
+        <v>3.3024897102982642</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93">
+        <v>0</v>
+      </c>
+      <c r="F18" s="93">
+        <v>0</v>
+      </c>
+      <c r="G18" s="93">
+        <v>0</v>
+      </c>
+      <c r="H18" s="93">
+        <v>0</v>
+      </c>
+      <c r="I18" s="93">
+        <v>0</v>
+      </c>
+      <c r="J18" s="93">
+        <v>105.56183782525362</v>
+      </c>
+      <c r="K18" s="95">
+        <v>6.5403549328781603</v>
+      </c>
+      <c r="M18" s="95">
+        <v>6.5403549328781603</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="93">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="93">
+        <v>0.10638297872340426</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386143B3-B78B-47EC-A810-2BADC07D61FC}">
+  <dimension ref="A1:BC31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="22" max="22" width="22.5" customWidth="1"/>
+    <col min="23" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="27" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="16.6640625" customWidth="1"/>
+    <col min="41" max="54" width="15.1640625" customWidth="1"/>
+    <col min="55" max="55" width="31.1640625" customWidth="1"/>
+    <col min="56" max="56" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44234</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L13" si="0">J2/I2</f>
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <f>0.122*1000/20</f>
+        <v>6.1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="O2" s="66">
+        <v>0.37</v>
+      </c>
+      <c r="P2" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q2" s="66">
+        <f t="shared" ref="Q2:Q10" si="1">(30/24.5)*(O2-P2)*0.01*1000</f>
+        <v>4.0408163265306127</v>
+      </c>
+      <c r="R2" s="66">
+        <v>21.12</v>
+      </c>
+      <c r="S2" s="66">
+        <v>20.73</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T10" si="2">(30/24.5)*(R2-S2)*0.01*1000</f>
+        <v>4.7755102040816402</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U8" si="3">T2/(N2*I2)*1000</f>
+        <v>2.8425655976676425</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V16" si="4">Q2/(N2*I2)*1000</f>
+        <v>2.4052478134110786</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W16" si="5">(AO2*1000/180.2)*L2/N2</f>
+        <v>1.2131361978753767</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X16" si="6">N2/23*1000*L2/N2</f>
+        <v>4.3478260869565224</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y10" si="7">100*((V2+X2)/(6*W2))</f>
+        <v>92.77707801474368</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2.33614421652213</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>10.43</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>36.28</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" ref="AF2:AF16" si="8">Z2*N2/AO2</f>
+        <v>1.0686495354128351</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" ref="AO2:AO10" si="9">AN2-AH2</f>
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4">
+        <f t="shared" ref="AQ2:AQ10" si="10">(AG2*1000/192.124)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" ref="AR2:AR10" si="11">(AI2*1000/88.06)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <f t="shared" ref="AS2:AS10" si="12">(AJ2*1000/60.052)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <f t="shared" ref="AT2:AT10" si="13">(AK2*1000/46.07)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4">
+        <f t="shared" ref="AU2:AU10" si="14">(AL2*1000/92.09)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4">
+        <f t="shared" ref="AV2:AV10" si="15">(AM2*1000/118.09)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="4">
+        <f t="shared" ref="AW2:AW10" si="16">(AP2*1000/118.09)*$L2/$N2</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <f t="shared" ref="AX2:AX10" si="17">100*((V2+X2+AQ2*6+AR2*3+AS2*2+AT2*2+AU2*3+AV2*4+AW2*5)/(6*W2))</f>
+        <v>92.77707801474368</v>
+      </c>
+      <c r="AY2" s="68">
+        <f t="shared" ref="AY2:AY16" si="18">AO2*L2/N2</f>
+        <v>0.21860714285714286</v>
+      </c>
+      <c r="AZ2" s="67">
+        <f t="shared" ref="AZ2:AZ16" si="19">(AA2+AC2)/(AB2+AD2+AE2)</f>
+        <v>0.1000989990100099</v>
+      </c>
+      <c r="BA2" s="67">
+        <f t="shared" ref="BA2:BA16" si="20">(AA2+AB2)/(AC2+AD2+AE2)</f>
+        <v>0.23621755253399257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44234</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>470</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="M3">
+        <f>0.12*1000/20</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="O3" s="66">
+        <v>0.34</v>
+      </c>
+      <c r="P3" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q3" s="66">
+        <f t="shared" si="1"/>
+        <v>3.6734693877551026</v>
+      </c>
+      <c r="R3" s="66">
+        <v>21.04</v>
+      </c>
+      <c r="S3" s="66">
+        <v>20.74</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6734693877551106</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1710811984368266</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1710811984368217</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2045323950535656</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="6"/>
+        <v>4.6253469010175765</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" si="7"/>
+        <v>94.039647354221643</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2.3093917440502301</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1318698304444845</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" si="9"/>
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <f t="shared" si="17"/>
+        <v>94.039647354221643</v>
+      </c>
+      <c r="AY3" s="68">
+        <f t="shared" si="18"/>
+        <v>0.21705673758865246</v>
+      </c>
+      <c r="AZ3" s="67">
+        <f t="shared" si="19"/>
+        <v>9.3493712411153659E-2</v>
+      </c>
+      <c r="BA3" s="67">
+        <f t="shared" si="20"/>
+        <v>0.2450199203187251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44234</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>480</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M4">
+        <f>0.122*1000/20</f>
+        <v>6.1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="O4" s="66">
+        <v>0.35</v>
+      </c>
+      <c r="P4" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q4" s="66">
+        <f t="shared" si="1"/>
+        <v>3.795918367346939</v>
+      </c>
+      <c r="R4" s="66">
+        <v>21.13</v>
+      </c>
+      <c r="S4" s="66">
+        <v>20.65</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>5.877551020408168</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="3"/>
+        <v>3.40136054421769</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1967120181405897</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1794379701566162</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5289855072463769</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" si="7"/>
+        <v>95.040995451049014</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>2.8536994415010399</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>11.36</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>42.34</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3986437386869988</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="9"/>
+        <v>7.3452000000000002</v>
+      </c>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <f t="shared" si="17"/>
+        <v>95.040995451049014</v>
+      </c>
+      <c r="AY4" s="68">
+        <f t="shared" si="18"/>
+        <v>0.21253472222222222</v>
+      </c>
+      <c r="AZ4" s="67">
+        <f t="shared" si="19"/>
+        <v>9.2060718575952841E-2</v>
+      </c>
+      <c r="BA4" s="67">
+        <f t="shared" si="20"/>
+        <v>0.24208172897776678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>460</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="M5">
+        <f>0.118*1000/20</f>
+        <v>5.9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3.7399999999999998</v>
+      </c>
+      <c r="O5" s="66">
+        <v>0.42</v>
+      </c>
+      <c r="P5" s="66">
+        <v>0.03</v>
+      </c>
+      <c r="Q5" s="66">
+        <f t="shared" si="1"/>
+        <v>4.7755102040816331</v>
+      </c>
+      <c r="R5" s="66">
+        <v>21.03</v>
+      </c>
+      <c r="S5" s="66">
+        <v>20.72</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>3.795918367346967</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2064161633032824</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="4"/>
+        <v>2.7758138828653993</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1943090177774007</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7258979206049148</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="7"/>
+        <v>104.68691787198898</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2.1057028876435901</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>12.24</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>40.78</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>38.33</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0635006684294643</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>7.4051</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="9"/>
+        <v>7.4051</v>
+      </c>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <f t="shared" si="17"/>
+        <v>104.68691787198898</v>
+      </c>
+      <c r="AY5" s="68">
+        <f t="shared" si="18"/>
+        <v>0.21521448500348755</v>
+      </c>
+      <c r="AZ5" s="67">
+        <f t="shared" si="19"/>
+        <v>9.4581280788177347E-2</v>
+      </c>
+      <c r="BA5" s="67">
+        <f t="shared" si="20"/>
+        <v>0.26106696935300799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>480</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M6">
+        <f>0.123*1000/20</f>
+        <v>6.15</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="O6" s="66">
+        <v>0.4</v>
+      </c>
+      <c r="P6" s="66">
+        <v>0.03</v>
+      </c>
+      <c r="Q6" s="66">
+        <f t="shared" si="1"/>
+        <v>4.5306122448979593</v>
+      </c>
+      <c r="R6" s="66">
+        <v>21.02</v>
+      </c>
+      <c r="S6" s="66">
+        <v>20.75</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3061224489795866</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7843925134820737</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4452786295865496</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1089643966883851</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5289855072463778</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="7"/>
+        <v>104.8164719814215</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>2.1484616148578102</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1199122001527526</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>7.4051</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="9"/>
+        <v>7.4051</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <f t="shared" si="17"/>
+        <v>104.8164719814215</v>
+      </c>
+      <c r="AY6" s="68">
+        <f t="shared" si="18"/>
+        <v>0.19983538428324696</v>
+      </c>
+      <c r="AZ6" s="67">
+        <f t="shared" si="19"/>
+        <v>9.0621592148309713E-2</v>
+      </c>
+      <c r="BA6" s="67">
+        <f t="shared" si="20"/>
+        <v>0.26020665322580644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <f>0.119*1000/20</f>
+        <v>5.95</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="O7" s="66">
+        <v>0.43</v>
+      </c>
+      <c r="P7" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q7" s="66">
+        <f t="shared" si="1"/>
+        <v>4.7755102040816331</v>
+      </c>
+      <c r="R7" s="66">
+        <v>21</v>
+      </c>
+      <c r="S7" s="66">
+        <v>20.68</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9183673469387799</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0842379504993507</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5401650021710811</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0929198054171489</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="6"/>
+        <v>4.3478260869565224</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="7"/>
+        <v>105.03959294766638</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2.2122171728752802</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>12.35</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>40.67</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>38.46</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1232713359726478</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>7.4051</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="9"/>
+        <v>7.4051</v>
+      </c>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <f t="shared" si="17"/>
+        <v>105.03959294766638</v>
+      </c>
+      <c r="AY7" s="68">
+        <f t="shared" si="18"/>
+        <v>0.19694414893617021</v>
+      </c>
+      <c r="AZ7" s="67">
+        <f t="shared" si="19"/>
+        <v>9.3135111499781362E-2</v>
+      </c>
+      <c r="BA7" s="67">
+        <f t="shared" si="20"/>
+        <v>0.25992188484313972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>480</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M8">
+        <f>0.081*1000/50</f>
+        <v>1.62</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6938775510204085</v>
+      </c>
+      <c r="R8" s="4">
+        <v>20.96</v>
+      </c>
+      <c r="S8" s="4">
+        <v>20.68</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4285714285714426</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0301810865191365</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9522851394078766</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5781890752580612</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5289855072463769</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="7"/>
+        <v>89.567538512112051</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>8.6478806128069099</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>16.02</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>53.07</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="shared" si="8"/>
+        <v>3.1675584167833786</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>20.826899999999998</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>24.703700000000001</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="9"/>
+        <v>3.8768000000000029</v>
+      </c>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5407479322143781E-2</v>
+      </c>
+      <c r="AS8" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="shared" si="17"/>
+        <v>90.37249527301185</v>
+      </c>
+      <c r="AY8" s="68">
+        <f t="shared" si="18"/>
+        <v>0.28438967136150256</v>
+      </c>
+      <c r="AZ8" s="67">
+        <f t="shared" si="19"/>
+        <v>0.25486259254611621</v>
+      </c>
+      <c r="BA8" s="67">
+        <f t="shared" si="20"/>
+        <v>0.40173815531258755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>460</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="M9">
+        <f>0.095*1000/50</f>
+        <v>1.9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4489795918367352</v>
+      </c>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1689694511344917</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3638658909010692</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="6"/>
+        <v>4.7258979206049148</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="7"/>
+        <v>96.476584494235979</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>6.9697409396905003</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>18.53</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>10.31</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>52.47</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="8"/>
+        <v>3.082494808266214</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>20.905100000000001</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>24.703700000000001</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="9"/>
+        <v>3.7986000000000004</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
+        <f t="shared" si="11"/>
+        <v>2.7772566135737482E-2</v>
+      </c>
+      <c r="AS9" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="4">
+        <f t="shared" si="17"/>
+        <v>97.494740543192847</v>
+      </c>
+      <c r="AY9" s="68">
+        <f t="shared" si="18"/>
+        <v>0.24576863354037268</v>
+      </c>
+      <c r="AZ9" s="67">
+        <f t="shared" si="19"/>
+        <v>0.262945188178833</v>
+      </c>
+      <c r="BA9" s="67">
+        <f t="shared" si="20"/>
+        <v>0.40528386734120297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>116</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44241</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>490</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="M10">
+        <f>0.096*1000/50</f>
+        <v>1.92</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4489795918367352</v>
+      </c>
+      <c r="R10" s="4">
+        <v>20.96</v>
+      </c>
+      <c r="S10" s="4">
+        <v>20.67</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.551020408163255</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" ref="U10:U16" si="21">T10/(N10*I10)*1000</f>
+        <v>4.3656508583270899</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0107936953980019</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3543607941016831</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="6"/>
+        <v>4.4365572315882869</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="7"/>
+        <v>91.646565664283813</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>9.4622460337255205</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>17.54</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>16.27</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>53.29</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="8"/>
+        <v>3.9562069405295213</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>20.7334</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>24.703700000000001</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="9"/>
+        <v>3.9703000000000017</v>
+      </c>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9475622970032781E-2</v>
+      </c>
+      <c r="AS10" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="4">
+        <f t="shared" si="17"/>
+        <v>92.365562517074082</v>
+      </c>
+      <c r="AY10" s="68">
+        <f t="shared" si="18"/>
+        <v>0.24405581509712329</v>
+      </c>
+      <c r="AZ10" s="67">
+        <f t="shared" si="19"/>
+        <v>0.24560966496450368</v>
+      </c>
+      <c r="BA10" s="67">
+        <f t="shared" si="20"/>
+        <v>0.39406189015890719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>9</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="69">
+        <v>116</v>
+      </c>
+      <c r="E11" s="70">
+        <v>44173</v>
+      </c>
+      <c r="F11" s="69">
+        <v>1</v>
+      </c>
+      <c r="G11" s="69">
+        <v>1</v>
+      </c>
+      <c r="H11" s="69">
+        <v>1</v>
+      </c>
+      <c r="I11" s="69">
+        <v>470</v>
+      </c>
+      <c r="J11" s="69">
+        <v>50</v>
+      </c>
+      <c r="K11" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="71">
+        <f t="shared" si="0"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="M11" s="69">
+        <v>1.58</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1.5139999999999987</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" ref="Q11:Q16" si="22">(30/24.5)*(O11-P11)*0.01*1000</f>
+        <v>2.2040816326530615</v>
+      </c>
+      <c r="R11" s="22">
+        <v>20.93</v>
+      </c>
+      <c r="S11" s="22">
+        <v>20.57</v>
+      </c>
+      <c r="T11" s="22">
+        <f t="shared" ref="T11:T16" si="23">(30/24.5)*(R11-S11)*0.01*1000</f>
+        <v>4.4081632653061149</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="21"/>
+        <v>6.1948948330561837</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="4"/>
+        <v>3.0974474165280972</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" si="5"/>
+        <v>1.4279785501174362</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" si="6"/>
+        <v>4.6253469010175774</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" ref="Y11:Y16" si="24">100*((V11+X11)/(6*W11))</f>
+        <v>90.136675102840954</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>1.92961533939351</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>11.393282346079287</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>4.129640786377939</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>1.5629885974836262</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>9.4665270235053587</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>31.876313723389103</v>
+      </c>
+      <c r="AF11" s="22">
+        <f t="shared" si="8"/>
+        <v>0.79774927605520596</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="AH11" s="22">
+        <v>21.852399999999999</v>
+      </c>
+      <c r="AI11" s="22">
+        <v>1.67E-2</v>
+      </c>
+      <c r="AJ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>1.17E-2</v>
+      </c>
+      <c r="AL11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="22">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AN11" s="22">
+        <v>25.514500000000002</v>
+      </c>
+      <c r="AO11" s="22">
+        <f t="shared" ref="AO11:AO16" si="25">AN11-AH11</f>
+        <v>3.6621000000000024</v>
+      </c>
+      <c r="AP11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="22">
+        <f t="shared" ref="AQ11:AQ16" si="26">(AG11*1000/192.124)*$L11/$N11</f>
+        <v>5.3031346399046607E-3</v>
+      </c>
+      <c r="AR11" s="22">
+        <f t="shared" ref="AR11:AR13" si="27">(AI11*1000/88.06)*$L11/$N11</f>
+        <v>1.3325516803278812E-2</v>
+      </c>
+      <c r="AS11" s="22">
+        <f t="shared" ref="AS11:AS13" si="28">(AJ11*1000/60.052)*$L11/$N11</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="22">
+        <f t="shared" ref="AT11:AT13" si="29">(AK11*1000/46.07)*$L11/$N11</f>
+        <v>1.7844891870418187E-2</v>
+      </c>
+      <c r="AU11" s="22">
+        <f t="shared" ref="AU11:AU13" si="30">(AL11*1000/92.09)*$L11/$N11</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="22">
+        <f t="shared" ref="AV11:AV13" si="31">(AM11*1000/118.09)*$L11/$N11</f>
+        <v>1.7850665148271648E-4</v>
+      </c>
+      <c r="AW11" s="22">
+        <f t="shared" ref="AW11:AW13" si="32">(AP11*1000/118.09)*$L11/$N11</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="22">
+        <f t="shared" ref="AX11:AX16" si="33">100*((V11+X11+AQ11*6+AR11*3+AS11*2+AT11*2+AU11*3+AV11*4+AW11*5)/(6*W11))</f>
+        <v>91.399522837109942</v>
+      </c>
+      <c r="AY11" s="22">
+        <f t="shared" si="18"/>
+        <v>0.25732173473116204</v>
+      </c>
+      <c r="AZ11" s="71">
+        <f t="shared" si="19"/>
+        <v>0.28492553092979445</v>
+      </c>
+      <c r="BA11" s="71">
+        <f t="shared" si="20"/>
+        <v>0.36179053917975784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>10</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="69">
+        <v>116</v>
+      </c>
+      <c r="E12" s="70">
+        <v>44173</v>
+      </c>
+      <c r="F12" s="69">
+        <v>1</v>
+      </c>
+      <c r="G12" s="69">
+        <v>2</v>
+      </c>
+      <c r="H12" s="69">
+        <v>2</v>
+      </c>
+      <c r="I12" s="69">
+        <v>480</v>
+      </c>
+      <c r="J12" s="69">
+        <v>50</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="71">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M12" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="N12" s="22">
+        <v>1.5360000000000014</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="22"/>
+        <v>2.3265306122448983</v>
+      </c>
+      <c r="R12" s="22">
+        <v>20.93</v>
+      </c>
+      <c r="S12" s="22">
+        <v>20.59</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="23"/>
+        <v>4.1632653061224474</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="21"/>
+        <v>5.6467899659863878</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="4"/>
+        <v>3.1555590986394533</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5596744237691138</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="6"/>
+        <v>4.5289855072463778</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="24"/>
+        <v>82.116973568061908</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>1.1999722722122548</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>7.5924479327848493</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>2.3553373026955171</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>0.38986125811136813</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>7.6882901847279186</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>18.837211524040846</v>
+      </c>
+      <c r="AF12" s="22">
+        <f t="shared" si="8"/>
+        <v>0.44474517050358914</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="AH12" s="22">
+        <v>21.370200000000001</v>
+      </c>
+      <c r="AI12" s="22">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AJ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="22">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AN12" s="22">
+        <v>25.514500000000002</v>
+      </c>
+      <c r="AO12" s="22">
+        <f t="shared" si="25"/>
+        <v>4.1443000000000012</v>
+      </c>
+      <c r="AP12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="22">
+        <f t="shared" si="26"/>
+        <v>4.4829062039504538E-3</v>
+      </c>
+      <c r="AR12" s="22">
+        <f t="shared" si="27"/>
+        <v>1.4401259518447007E-2</v>
+      </c>
+      <c r="AS12" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="22">
+        <f t="shared" si="29"/>
+        <v>4.4161172310252473E-3</v>
+      </c>
+      <c r="AU12" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="22">
+        <f t="shared" si="31"/>
+        <v>3.4456858469528862E-4</v>
+      </c>
+      <c r="AW12" s="22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="22">
+        <f t="shared" si="33"/>
+        <v>82.975183924402316</v>
+      </c>
+      <c r="AY12" s="22">
+        <f t="shared" si="18"/>
+        <v>0.28105333116319425</v>
+      </c>
+      <c r="AZ12" s="71">
+        <f t="shared" si="19"/>
+        <v>0.27638771808975604</v>
+      </c>
+      <c r="BA12" s="71">
+        <f t="shared" si="20"/>
+        <v>0.36959506166501666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="69">
+        <v>116</v>
+      </c>
+      <c r="E13" s="70">
+        <v>44173</v>
+      </c>
+      <c r="F13" s="69">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69">
+        <v>4</v>
+      </c>
+      <c r="H13" s="69">
+        <v>4</v>
+      </c>
+      <c r="I13" s="69">
+        <v>490</v>
+      </c>
+      <c r="J13" s="69">
+        <v>50</v>
+      </c>
+      <c r="K13" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="71">
+        <f t="shared" si="0"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="M13" s="69">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="N13" s="22">
+        <v>1.5859999999999985</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="22"/>
+        <v>2.4489795918367352</v>
+      </c>
+      <c r="R13" s="22">
+        <v>20.87</v>
+      </c>
+      <c r="S13" s="22">
+        <v>20.57</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="23"/>
+        <v>3.6734693877551106</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="21"/>
+        <v>4.726908134641266</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="4"/>
+        <v>3.1512720897608379</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="5"/>
+        <v>1.5160957433010103</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="6"/>
+        <v>4.4365572315882877</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="24"/>
+        <v>83.414139628896052</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>2.1743847341948555</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>16.330885878169877</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>4.6394083665782517</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>3.6074392463589335</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>11.768378292430993</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>32.625371985122683</v>
+      </c>
+      <c r="AF13" s="22">
+        <f t="shared" si="8"/>
+        <v>0.81213625707864168</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>1.72E-2</v>
+      </c>
+      <c r="AH13" s="22">
+        <v>21.2682</v>
+      </c>
+      <c r="AI13" s="22">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AJ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="22">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="AL13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="22">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AN13" s="22">
+        <v>25.514500000000002</v>
+      </c>
+      <c r="AO13" s="22">
+        <f t="shared" si="25"/>
+        <v>4.2463000000000015</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="22">
+        <f t="shared" si="26"/>
+        <v>5.7599348104402058E-3</v>
+      </c>
+      <c r="AR13" s="22">
+        <f t="shared" si="27"/>
+        <v>1.2931989001105185E-2</v>
+      </c>
+      <c r="AS13" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="22">
+        <f t="shared" si="29"/>
+        <v>2.2763557431553255E-2</v>
+      </c>
+      <c r="AU13" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="22">
+        <f t="shared" si="31"/>
+        <v>3.2689544499593746E-4</v>
+      </c>
+      <c r="AW13" s="22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="22">
+        <f t="shared" si="33"/>
+        <v>84.735409223732205</v>
+      </c>
+      <c r="AY13" s="22">
+        <f t="shared" si="18"/>
+        <v>0.27320045294284206</v>
+      </c>
+      <c r="AZ13" s="71">
+        <f t="shared" si="19"/>
+        <v>0.40662942539017805</v>
+      </c>
+      <c r="BA13" s="71">
+        <f t="shared" si="20"/>
+        <v>0.43687030368906621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44181</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>480</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14:L16" si="34">J14/I14</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M14">
+        <v>1.28</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.4479999999999991</v>
+      </c>
+      <c r="O14" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q14" s="66">
+        <f t="shared" si="22"/>
+        <v>1.9591836734693882</v>
+      </c>
+      <c r="R14" s="66">
+        <v>20.89</v>
+      </c>
+      <c r="S14" s="66">
+        <v>20.54</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="23"/>
+        <v>4.2857142857143034</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="21"/>
+        <v>6.1661404893449392</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8188070808433898</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0511296278127642</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5289855072463769</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="24"/>
+        <v>116.50628672347752</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1.7796980578099666</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>9.3928992997141982</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1.9216176837310417</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>2.0542991814184957</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>8.4663136141972952</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>29.704925975115572</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="8"/>
+        <v>0.9787325437557276</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>22.7319</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>25.364899999999999</v>
+      </c>
+      <c r="AO14" s="4">
+        <f t="shared" si="25"/>
+        <v>2.6329999999999991</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0.2089</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f t="shared" si="26"/>
+        <v>4.8676790729805328E-3</v>
+      </c>
+      <c r="AR14" s="4">
+        <f>(AI14*1000/88.06)*$L14/$N14</f>
+        <v>8.7410841595112043E-3</v>
+      </c>
+      <c r="AS14" s="4">
+        <f>(AJ14*1000/60.052)*$L14/$N14</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4">
+        <f>(AK14*1000/46.07)*$L14/$N14</f>
+        <v>2.4671700243164296E-2</v>
+      </c>
+      <c r="AU14" s="4">
+        <f>(AL14*1000/92.09)*$L14/$N14</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="4">
+        <f>(AM14*1000/118.09)*$L14/$N14</f>
+        <v>1.2122722360992273E-2</v>
+      </c>
+      <c r="AW14" s="4">
+        <f>(AP14*1000/118.09)*$L14/$N14</f>
+        <v>0.12725812568900932</v>
+      </c>
+      <c r="AX14" s="4">
+        <f t="shared" si="33"/>
+        <v>129.02542525153103</v>
+      </c>
+      <c r="AY14" s="68">
+        <f t="shared" si="18"/>
+        <v>0.1894135589318601</v>
+      </c>
+      <c r="AZ14" s="67">
+        <f t="shared" si="19"/>
+        <v>0.285517153421468</v>
+      </c>
+      <c r="BA14" s="67">
+        <f t="shared" si="20"/>
+        <v>0.28127695313003076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>116</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44181</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>490</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="34"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="M15">
+        <v>1.36</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1.4039999999999992</v>
+      </c>
+      <c r="O15" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="P15" s="66">
+        <v>0.03</v>
+      </c>
+      <c r="Q15" s="66">
+        <f t="shared" si="22"/>
+        <v>2.2040816326530615</v>
+      </c>
+      <c r="R15" s="65">
+        <v>20.89</v>
+      </c>
+      <c r="S15" s="65">
+        <v>21.76</v>
+      </c>
+      <c r="T15" s="65">
+        <f t="shared" si="23"/>
+        <v>-10.653061224489809</v>
+      </c>
+      <c r="U15" s="65">
+        <f t="shared" si="21"/>
+        <v>-15.48500090774146</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="4"/>
+        <v>3.2037932912568508</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2451360160255045</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="6"/>
+        <v>4.4365572315882877</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="24"/>
+        <v>102.26928925180489</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1.8299122164079413</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>11.819828177496907</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>2.3274955479170401</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>1.979853201450166</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>7.7261858630569096</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>27.530572246813939</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="8"/>
+        <v>0.83220936506761756</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>22.277699999999999</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>1.18E-2</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>25.364899999999999</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="25"/>
+        <v>3.0871999999999993</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f t="shared" si="26"/>
+        <v>1.8536224319988981E-3</v>
+      </c>
+      <c r="AR15" s="4">
+        <f>(AI15*1000/88.06)*$L15/$N15</f>
+        <v>9.7389052971285917E-3</v>
+      </c>
+      <c r="AS15" s="4">
+        <f>(AJ15*1000/60.052)*$L15/$N15</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <f>(AK15*1000/46.07)*$L15/$N15</f>
+        <v>3.6284107108008638E-3</v>
+      </c>
+      <c r="AU15" s="4">
+        <f>(AL15*1000/92.09)*$L15/$N15</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="4">
+        <f>(AM15*1000/118.09)*$L15/$N15</f>
+        <v>1.3109112706272266E-2</v>
+      </c>
+      <c r="AW15" s="4">
+        <f t="shared" ref="AW15:AW16" si="35">(AP15*1000/118.09)*$L15/$N15</f>
+        <v>0.12352107606332596</v>
+      </c>
+      <c r="AX15" s="4">
+        <f t="shared" si="33"/>
+        <v>111.87516220879333</v>
+      </c>
+      <c r="AY15" s="68">
+        <f t="shared" si="18"/>
+        <v>0.22437351008779588</v>
+      </c>
+      <c r="AZ15" s="67">
+        <f t="shared" si="19"/>
+        <v>0.3671665667381856</v>
+      </c>
+      <c r="BA15" s="67">
+        <f t="shared" si="20"/>
+        <v>0.37993048312408467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>116</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44181</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>470</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="34"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="M16">
+        <v>1.34</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.5960000000000008</v>
+      </c>
+      <c r="O16" s="66">
+        <v>0.21</v>
+      </c>
+      <c r="P16" s="66">
+        <v>0.04</v>
+      </c>
+      <c r="Q16" s="66">
+        <f t="shared" si="22"/>
+        <v>2.0816326530612246</v>
+      </c>
+      <c r="R16" s="66">
+        <v>20.9</v>
+      </c>
+      <c r="S16" s="66">
+        <v>20.5</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="23"/>
+        <v>4.8979591836734517</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="21"/>
+        <v>6.5295675140956773</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="4"/>
+        <v>2.7750661934906726</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1430653522369452</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="6"/>
+        <v>4.6253469010175765</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="24"/>
+        <v>107.90303284097536</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1.6694023251189356</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>10.021283256331222</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1.2595507379809849</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>1.3722874672682983</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>9.9194402472960785</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>30.714760508919859</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="8"/>
+        <v>0.86219859908414442</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>7.6E-3</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>22.274699999999999</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>25.364899999999999</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" si="25"/>
+        <v>3.0901999999999994</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f t="shared" si="26"/>
+        <v>2.6367638242415911E-3</v>
+      </c>
+      <c r="AR16" s="4">
+        <f>(AI16*1000/88.06)*$L16/$N16</f>
+        <v>7.5693847043372259E-3</v>
+      </c>
+      <c r="AS16" s="4">
+        <f>(AJ16*1000/60.052)*$L16/$N16</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
+        <f>(AK16*1000/46.07)*$L16/$N16</f>
+        <v>1.5047154715573987E-2</v>
+      </c>
+      <c r="AU16" s="4">
+        <f>(AL16*1000/92.09)*$L16/$N16</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="4">
+        <f>(AM16*1000/118.09)*$L16/$N16</f>
+        <v>9.3134391409560036E-3</v>
+      </c>
+      <c r="AW16" s="4">
+        <f t="shared" si="35"/>
+        <v>0.10233494037911052</v>
+      </c>
+      <c r="AX16" s="4">
+        <f t="shared" si="33"/>
+        <v>116.90735185243078</v>
+      </c>
+      <c r="AY16" s="68">
+        <f t="shared" si="18"/>
+        <v>0.20598037647309753</v>
+      </c>
+      <c r="AZ16" s="67">
+        <f t="shared" si="19"/>
+        <v>0.27196348661154746</v>
+      </c>
+      <c r="BA16" s="67">
+        <f t="shared" si="20"/>
+        <v>0.26854979959989894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
+        <v>75</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="69">
+        <v>116</v>
+      </c>
+      <c r="E18" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="69">
+        <v>470</v>
+      </c>
+      <c r="J18" s="69">
+        <v>50</v>
+      </c>
+      <c r="K18" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="22">
+        <f>J18/I18</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1.24</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="P18" s="69">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" ref="Q18:Q19" si="36">(30/24.5)*(O18-P18)*0.01*1000</f>
+        <v>2.2040816326530615</v>
+      </c>
+      <c r="V18" s="22">
+        <f>Q18/(N18*I18)*1000</f>
+        <v>3.7818833779222061</v>
+      </c>
+      <c r="W18" s="22">
+        <f>(AO18*1000/180.2)*L18/N18</f>
+        <v>1.4433364286002668</v>
+      </c>
+      <c r="X18" s="22">
+        <f>N18/23*1000*L18/N18</f>
+        <v>4.6253469010175765</v>
+      </c>
+      <c r="Y18" s="72">
+        <f>100*((V18+X18)/(6*W18))</f>
+        <v>97.080972857370355</v>
+      </c>
+      <c r="Z18" s="73">
+        <v>5.2495057488951202</v>
+      </c>
+      <c r="AA18" s="69">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AB18" s="69">
+        <v>9.24</v>
+      </c>
+      <c r="AC18" s="69">
+        <v>1.7</v>
+      </c>
+      <c r="AD18" s="69">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="AE18" s="69">
+        <v>52.96</v>
+      </c>
+      <c r="AF18" s="22">
+        <f>Z18*N18/AO18</f>
+        <v>2.1471787599386287</v>
+      </c>
+      <c r="AG18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="22">
+        <v>21.607199999999999</v>
+      </c>
+      <c r="AI18" s="22">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="AJ18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="22">
+        <v>24.6388</v>
+      </c>
+      <c r="AO18" s="22">
+        <f t="shared" ref="AO18:AO19" si="37">AN18-AH18</f>
+        <v>3.031600000000001</v>
+      </c>
+      <c r="AY18" s="22">
+        <f>AO18*L18/N18</f>
+        <v>0.26008922443376814</v>
+      </c>
+      <c r="AZ18" s="71">
+        <f>(AA18+AC18)/(AB18+AD18+AE18)</f>
+        <v>0.25332163449486089</v>
+      </c>
+      <c r="BA18" s="71">
+        <f>(AA18+AB18)/(AC18+AD18+AE18)</f>
+        <v>0.38413621262458475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>76</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="69">
+        <v>116</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="69">
+        <v>470</v>
+      </c>
+      <c r="J19" s="69">
+        <v>50</v>
+      </c>
+      <c r="K19" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="22">
+        <f>J19/I19</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="M19" s="22">
+        <v>1.73</v>
+      </c>
+      <c r="N19" s="22">
+        <v>1.42</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="P19" s="69">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="36"/>
+        <v>2.2040816326530615</v>
+      </c>
+      <c r="V19" s="22">
+        <f>Q19/(N19*I19)*1000</f>
+        <v>3.3024897102982642</v>
+      </c>
+      <c r="W19" s="22">
+        <f>(AO19*1000/180.2)*L19/N19</f>
+        <v>1.251689179638247</v>
+      </c>
+      <c r="X19" s="22">
+        <f>N19/23*1000*L19/N19</f>
+        <v>4.6253469010175765</v>
+      </c>
+      <c r="Y19" s="72">
+        <f>100*((V19+X19)/(6*W19))</f>
+        <v>105.56183782525362</v>
+      </c>
+      <c r="Z19" s="73">
+        <v>6.5403549328781603</v>
+      </c>
+      <c r="AA19" s="69">
+        <v>16.91</v>
+      </c>
+      <c r="AB19" s="69">
+        <v>10.41</v>
+      </c>
+      <c r="AC19" s="69">
+        <v>1.61</v>
+      </c>
+      <c r="AD19" s="69">
+        <v>18.27</v>
+      </c>
+      <c r="AE19" s="69">
+        <v>52.8</v>
+      </c>
+      <c r="AF19" s="22">
+        <f>Z19*N19/AO19</f>
+        <v>3.0847656706702717</v>
+      </c>
+      <c r="AG19" s="22">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AH19" s="22">
+        <v>21.6281</v>
+      </c>
+      <c r="AI19" s="22">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="AJ19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="22">
+        <v>24.6388</v>
+      </c>
+      <c r="AO19" s="22">
+        <f t="shared" si="37"/>
+        <v>3.0106999999999999</v>
+      </c>
+      <c r="AY19" s="22">
+        <f>AO19*L19/N19</f>
+        <v>0.22555439017081211</v>
+      </c>
+      <c r="AZ19" s="71">
+        <f>(AA19+AC19)/(AB19+AD19+AE19)</f>
+        <v>0.22729504172803144</v>
+      </c>
+      <c r="BA19" s="71">
+        <f>(AA19+AB19)/(AC19+AD19+AE19)</f>
+        <v>0.37589433131535505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>76.357668669999995</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>123.241112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>135.70506800000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA25" s="25"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26">
+        <v>308.41123470000002</v>
+      </c>
+      <c r="AA26" s="25"/>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA27" s="25"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA28" s="25"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AA29" s="25"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA30" s="25"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752F4FE6-8147-874F-BB88-C986B4396256}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="87">
+        <v>1.1990355210285195</v>
+      </c>
+      <c r="C2" s="87">
+        <v>2.2576803433294965</v>
+      </c>
+      <c r="D2" s="87">
+        <v>2.8050024467740529</v>
+      </c>
+      <c r="E2" s="87">
+        <v>0</v>
+      </c>
+      <c r="F2" s="87">
+        <v>0</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0</v>
+      </c>
+      <c r="H2" s="85">
+        <v>0</v>
+      </c>
+      <c r="I2" s="85">
+        <v>0</v>
+      </c>
+      <c r="J2" s="85">
+        <v>93.952573606671436</v>
+      </c>
+      <c r="K2" s="85">
+        <v>6.8494663392682744</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="85">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="85">
+        <v>0.10351654846335699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="87">
+        <v>1.1320644066276451</v>
+      </c>
+      <c r="C3" s="87">
+        <v>2.5870858382076767</v>
+      </c>
+      <c r="D3" s="87">
+        <v>2.0250155424282354</v>
+      </c>
+      <c r="E3" s="87">
+        <v>0</v>
+      </c>
+      <c r="F3" s="87">
+        <v>0</v>
+      </c>
+      <c r="G3" s="85">
+        <v>0</v>
+      </c>
+      <c r="H3" s="85">
+        <v>0</v>
+      </c>
+      <c r="I3" s="85">
+        <v>0</v>
+      </c>
+      <c r="J3" s="85">
+        <v>104.84766093369228</v>
+      </c>
+      <c r="K3" s="85">
+        <v>4.2053206822984341</v>
+      </c>
+      <c r="N3" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="85">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="85">
+        <v>0.10428743961352656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="87">
+        <v>1.4321385867536043</v>
+      </c>
+      <c r="C4" s="87">
+        <v>3.2575832123010966</v>
+      </c>
+      <c r="D4" s="87">
+        <v>4.6979159724231128</v>
+      </c>
+      <c r="E4" s="87">
+        <v>0</v>
+      </c>
+      <c r="F4" s="87">
+        <v>0</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0</v>
+      </c>
+      <c r="H4" s="85">
+        <v>0</v>
+      </c>
+      <c r="I4" s="85">
+        <v>0</v>
+      </c>
+      <c r="J4" s="85">
+        <v>91.298756513677333</v>
+      </c>
+      <c r="K4" s="85">
+        <v>5.7533191642577561</v>
+      </c>
+      <c r="N4" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="85">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="85">
+        <v>0.10496771172237011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="87">
+        <v>1.5012495723958532</v>
+      </c>
+      <c r="C5" s="87">
+        <v>2.6963935979787323</v>
+      </c>
+      <c r="D5" s="87">
+        <v>5.5228643112279459</v>
+      </c>
+      <c r="E5" s="87">
+        <v>5.1819918847651062E-3</v>
+      </c>
+      <c r="F5" s="87">
+        <v>1.3552921774277001E-2</v>
+      </c>
+      <c r="G5" s="85">
+        <v>1.500818884433223E-2</v>
+      </c>
+      <c r="H5" s="85">
+        <v>2.8332356039131417E-4</v>
+      </c>
+      <c r="I5" s="85">
+        <v>0</v>
+      </c>
+      <c r="J5" s="85">
+        <v>80.376765643902189</v>
+      </c>
+      <c r="K5" s="85">
+        <v>1.7679907819335386E-2</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="85">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="85">
+        <v>0.10419682057220052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="87">
+        <v>1.0992794223271354</v>
+      </c>
+      <c r="C6" s="87">
+        <v>2.7586121992322674</v>
+      </c>
+      <c r="D6" s="87">
+        <v>-0.34321123674643478</v>
+      </c>
+      <c r="E6" s="87">
+        <v>3.0491421388312914E-3</v>
+      </c>
+      <c r="F6" s="87">
+        <v>8.3142267924041346E-3</v>
+      </c>
+      <c r="G6" s="85">
+        <v>1.43116487568615E-2</v>
+      </c>
+      <c r="H6" s="85">
+        <v>1.1018534103260168E-2</v>
+      </c>
+      <c r="I6" s="85">
+        <v>0.11302588540505289</v>
+      </c>
+      <c r="J6" s="85">
+        <v>110.63654734849506</v>
+      </c>
+      <c r="K6" s="85">
+        <v>1.7596708664456145E-2</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="85">
+        <v>116</v>
+      </c>
+      <c r="Q6" s="85">
+        <v>0.10419682057220052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8442966D-11B8-E34B-9965-04AF55B2ABB9}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="87">
+        <v>1.2131361978753767</v>
+      </c>
+      <c r="C2" s="87">
+        <v>2.4052478134110786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="87">
+        <v>1.2045323950535656</v>
+      </c>
+      <c r="C3" s="87">
+        <v>2.1710811984368217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="87">
+        <v>1.1794379701566162</v>
+      </c>
+      <c r="C4" s="87">
+        <v>2.1967120181405897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="85">
+        <v>1.1943090177774007</v>
+      </c>
+      <c r="C5" s="93">
+        <v>2.7758138828653993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="85">
+        <v>1.1089643966883851</v>
+      </c>
+      <c r="C6" s="93">
+        <v>2.4452786295865496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="85">
+        <v>1.0929198054171489</v>
+      </c>
+      <c r="C7" s="93">
+        <v>2.5401650021710811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="88">
+        <v>1.5781890752580612</v>
+      </c>
+      <c r="C8" s="88">
+        <v>3.9522851394078766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="88">
+        <v>1.3638658909010692</v>
+      </c>
+      <c r="C9" s="88">
+        <v>3.1689694511344917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="88">
+        <v>1.3543607941016831</v>
+      </c>
+      <c r="C10" s="88">
+        <v>3.0107936953980019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="86">
+        <v>1.4279785501174362</v>
+      </c>
+      <c r="C11" s="86">
+        <v>3.0974474165280972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="86">
+        <v>1.5596744237691138</v>
+      </c>
+      <c r="C12" s="86">
+        <v>3.1555590986394533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="86">
+        <v>1.5160957433010103</v>
+      </c>
+      <c r="C13" s="86">
+        <v>3.1512720897608379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="85">
+        <v>1.0511296278127642</v>
+      </c>
+      <c r="C14" s="85">
+        <v>2.8188070808433898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="85">
+        <v>1.2451360160255045</v>
+      </c>
+      <c r="C15" s="85">
+        <v>3.2037932912568508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="85">
+        <v>1.1430653522369452</v>
+      </c>
+      <c r="C16" s="85">
+        <v>2.7750661934906726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="93">
+        <v>1.4433364286002668</v>
+      </c>
+      <c r="C17" s="93">
+        <v>3.7818833779222061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="93">
+        <v>1.251689179638247</v>
+      </c>
+      <c r="C18" s="93">
+        <v>3.3024897102982642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8696BB4-0F6F-644B-93A5-C7AA385369D7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2784,12 +6895,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88370357-0510-864B-9E68-3C4A719F0CB3}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6217,7 +10328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8496B43-3626-B14F-B808-47B0850372ED}">
   <dimension ref="A1:BU82"/>
   <sheetViews>
@@ -11851,14 +15962,14 @@
         <f t="shared" ref="Z49:Z56" si="18">100*((W49+Y49)/(6*X49))</f>
         <v>90.136675102840996</v>
       </c>
-      <c r="AA49" s="93" t="s">
+      <c r="AA49" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="AB49" s="93"/>
-      <c r="AC49" s="93"/>
-      <c r="AD49" s="93"/>
-      <c r="AE49" s="93"/>
-      <c r="AF49" s="93"/>
+      <c r="AB49" s="97"/>
+      <c r="AC49" s="97"/>
+      <c r="AD49" s="97"/>
+      <c r="AE49" s="97"/>
+      <c r="AF49" s="97"/>
       <c r="AG49">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -11999,12 +16110,12 @@
         <f t="shared" si="18"/>
         <v>82.11697356806188</v>
       </c>
-      <c r="AA50" s="93"/>
-      <c r="AB50" s="93"/>
-      <c r="AC50" s="93"/>
-      <c r="AD50" s="93"/>
-      <c r="AE50" s="93"/>
-      <c r="AF50" s="93"/>
+      <c r="AA50" s="97"/>
+      <c r="AB50" s="97"/>
+      <c r="AC50" s="97"/>
+      <c r="AD50" s="97"/>
+      <c r="AE50" s="97"/>
+      <c r="AF50" s="97"/>
       <c r="AG50">
         <v>1.2699999999999999E-2</v>
       </c>
@@ -12145,12 +16256,12 @@
         <f t="shared" si="18"/>
         <v>65.985058756677134</v>
       </c>
-      <c r="AA51" s="93"/>
-      <c r="AB51" s="93"/>
-      <c r="AC51" s="93"/>
-      <c r="AD51" s="93"/>
-      <c r="AE51" s="93"/>
-      <c r="AF51" s="93"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="97"/>
       <c r="AG51">
         <v>1.5100000000000001E-2</v>
       </c>
@@ -12289,12 +16400,12 @@
         <f t="shared" si="18"/>
         <v>83.414139628896095</v>
       </c>
-      <c r="AA52" s="93"/>
-      <c r="AB52" s="93"/>
-      <c r="AC52" s="93"/>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="93"/>
-      <c r="AF52" s="93"/>
+      <c r="AA52" s="97"/>
+      <c r="AB52" s="97"/>
+      <c r="AC52" s="97"/>
+      <c r="AD52" s="97"/>
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="97"/>
       <c r="AG52">
         <v>1.72E-2</v>
       </c>
@@ -12430,12 +16541,12 @@
         <f t="shared" si="18"/>
         <v>82.807755793856231</v>
       </c>
-      <c r="AA53" s="93"/>
-      <c r="AB53" s="93"/>
-      <c r="AC53" s="93"/>
-      <c r="AD53" s="93"/>
-      <c r="AE53" s="93"/>
-      <c r="AF53" s="93"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="97"/>
       <c r="AG53">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -16822,7 +20933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018065B8-A712-4C11-AB93-FDEA7DB272DA}">
   <dimension ref="A1:AZ54"/>
   <sheetViews>
@@ -25138,7 +29249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A6DD82-743E-4531-A6C7-AFFA05AD9981}">
   <dimension ref="A1:AQ17"/>
   <sheetViews>
@@ -25170,47 +29281,47 @@
       <c r="D1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="94"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
     </row>
     <row r="2" spans="1:43" s="42" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="42" t="s">
@@ -26661,7 +30772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34E91A5-D565-44FE-96A8-63723AA2633C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -26770,3435 +30881,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386143B3-B78B-47EC-A810-2BADC07D61FC}">
-  <dimension ref="A1:BC31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="22" max="22" width="22.5" customWidth="1"/>
-    <col min="23" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="27" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" customWidth="1"/>
-    <col min="40" max="40" width="16.6640625" customWidth="1"/>
-    <col min="41" max="54" width="15.1640625" customWidth="1"/>
-    <col min="55" max="55" width="31.1640625" customWidth="1"/>
-    <col min="56" max="56" width="26.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA1" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG1" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC1" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44234</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L13" si="0">J2/I2</f>
-        <v>0.1</v>
-      </c>
-      <c r="M2">
-        <f>0.122*1000/20</f>
-        <v>6.1</v>
-      </c>
-      <c r="N2" s="4">
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="O2" s="66">
-        <v>0.37</v>
-      </c>
-      <c r="P2" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q2" s="66">
-        <f t="shared" ref="Q2:Q10" si="1">(30/24.5)*(O2-P2)*0.01*1000</f>
-        <v>4.0408163265306127</v>
-      </c>
-      <c r="R2" s="66">
-        <v>21.12</v>
-      </c>
-      <c r="S2" s="66">
-        <v>20.73</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T10" si="2">(30/24.5)*(R2-S2)*0.01*1000</f>
-        <v>4.7755102040816402</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U8" si="3">T2/(N2*I2)*1000</f>
-        <v>2.8425655976676425</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" ref="V2:V16" si="4">Q2/(N2*I2)*1000</f>
-        <v>2.4052478134110786</v>
-      </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W16" si="5">(AO2*1000/180.2)*L2/N2</f>
-        <v>1.2131361978753767</v>
-      </c>
-      <c r="X2" s="4">
-        <f t="shared" ref="X2:X16" si="6">N2/23*1000*L2/N2</f>
-        <v>4.3478260869565224</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y10" si="7">100*((V2+X2)/(6*W2))</f>
-        <v>92.77707801474368</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>2.33614421652213</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>8.68</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>10.43</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>36.28</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" ref="AF2:AF16" si="8">Z2*N2/AO2</f>
-        <v>1.0686495354128351</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO10" si="9">AN2-AH2</f>
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4">
-        <f t="shared" ref="AQ2:AQ10" si="10">(AG2*1000/192.124)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AR2" s="4">
-        <f t="shared" ref="AR2:AR10" si="11">(AI2*1000/88.06)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AS2" s="4">
-        <f t="shared" ref="AS2:AS10" si="12">(AJ2*1000/60.052)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AT2" s="4">
-        <f t="shared" ref="AT2:AT10" si="13">(AK2*1000/46.07)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AU2" s="4">
-        <f t="shared" ref="AU2:AU10" si="14">(AL2*1000/92.09)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AV2" s="4">
-        <f t="shared" ref="AV2:AV10" si="15">(AM2*1000/118.09)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AW2" s="4">
-        <f t="shared" ref="AW2:AW10" si="16">(AP2*1000/118.09)*$L2/$N2</f>
-        <v>0</v>
-      </c>
-      <c r="AX2" s="4">
-        <f t="shared" ref="AX2:AX10" si="17">100*((V2+X2+AQ2*6+AR2*3+AS2*2+AT2*2+AU2*3+AV2*4+AW2*5)/(6*W2))</f>
-        <v>92.77707801474368</v>
-      </c>
-      <c r="AY2" s="68">
-        <f t="shared" ref="AY2:AY16" si="18">AO2*L2/N2</f>
-        <v>0.21860714285714286</v>
-      </c>
-      <c r="AZ2" s="67">
-        <f t="shared" ref="AZ2:AZ16" si="19">(AA2+AC2)/(AB2+AD2+AE2)</f>
-        <v>0.1000989990100099</v>
-      </c>
-      <c r="BA2" s="67">
-        <f t="shared" ref="BA2:BA16" si="20">(AA2+AB2)/(AC2+AD2+AE2)</f>
-        <v>0.23621755253399257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44234</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>470</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="M3">
-        <f>0.12*1000/20</f>
-        <v>6</v>
-      </c>
-      <c r="N3" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="O3" s="66">
-        <v>0.34</v>
-      </c>
-      <c r="P3" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q3" s="66">
-        <f t="shared" si="1"/>
-        <v>3.6734693877551026</v>
-      </c>
-      <c r="R3" s="66">
-        <v>21.04</v>
-      </c>
-      <c r="S3" s="66">
-        <v>20.74</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6734693877551106</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="3"/>
-        <v>2.1710811984368266</v>
-      </c>
-      <c r="V3" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1710811984368217</v>
-      </c>
-      <c r="W3" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2045323950535656</v>
-      </c>
-      <c r="X3" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6253469010175765</v>
-      </c>
-      <c r="Y3" s="4">
-        <f t="shared" si="7"/>
-        <v>94.039647354221643</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>2.3093917440502301</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>8.25</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>11.43</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>42.4</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="AF3" s="4">
-        <f t="shared" si="8"/>
-        <v>1.1318698304444845</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AO3" s="4">
-        <f t="shared" si="9"/>
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR3" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU3" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV3" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW3" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX3" s="4">
-        <f t="shared" si="17"/>
-        <v>94.039647354221643</v>
-      </c>
-      <c r="AY3" s="68">
-        <f t="shared" si="18"/>
-        <v>0.21705673758865246</v>
-      </c>
-      <c r="AZ3" s="67">
-        <f t="shared" si="19"/>
-        <v>9.3493712411153659E-2</v>
-      </c>
-      <c r="BA3" s="67">
-        <f t="shared" si="20"/>
-        <v>0.2450199203187251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44234</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>480</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="M4">
-        <f>0.122*1000/20</f>
-        <v>6.1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="O4" s="66">
-        <v>0.35</v>
-      </c>
-      <c r="P4" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q4" s="66">
-        <f t="shared" si="1"/>
-        <v>3.795918367346939</v>
-      </c>
-      <c r="R4" s="66">
-        <v>21.13</v>
-      </c>
-      <c r="S4" s="66">
-        <v>20.65</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="2"/>
-        <v>5.877551020408168</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="3"/>
-        <v>3.40136054421769</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" si="4"/>
-        <v>2.1967120181405897</v>
-      </c>
-      <c r="W4" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1794379701566162</v>
-      </c>
-      <c r="X4" s="4">
-        <f t="shared" si="6"/>
-        <v>4.5289855072463769</v>
-      </c>
-      <c r="Y4" s="4">
-        <f t="shared" si="7"/>
-        <v>95.040995451049014</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>2.8536994415010399</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>11.36</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>42.34</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>37.869999999999997</v>
-      </c>
-      <c r="AF4" s="4">
-        <f t="shared" si="8"/>
-        <v>1.3986437386869988</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AO4" s="4">
-        <f t="shared" si="9"/>
-        <v>7.3452000000000002</v>
-      </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="4">
-        <f t="shared" si="17"/>
-        <v>95.040995451049014</v>
-      </c>
-      <c r="AY4" s="68">
-        <f t="shared" si="18"/>
-        <v>0.21253472222222222</v>
-      </c>
-      <c r="AZ4" s="67">
-        <f t="shared" si="19"/>
-        <v>9.2060718575952841E-2</v>
-      </c>
-      <c r="BA4" s="67">
-        <f t="shared" si="20"/>
-        <v>0.24208172897776678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>460</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="M5">
-        <f>0.118*1000/20</f>
-        <v>5.9</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3.7399999999999998</v>
-      </c>
-      <c r="O5" s="66">
-        <v>0.42</v>
-      </c>
-      <c r="P5" s="66">
-        <v>0.03</v>
-      </c>
-      <c r="Q5" s="66">
-        <f t="shared" si="1"/>
-        <v>4.7755102040816331</v>
-      </c>
-      <c r="R5" s="66">
-        <v>21.03</v>
-      </c>
-      <c r="S5" s="66">
-        <v>20.72</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="2"/>
-        <v>3.795918367346967</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2064161633032824</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="4"/>
-        <v>2.7758138828653993</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1943090177774007</v>
-      </c>
-      <c r="X5" s="4">
-        <f t="shared" si="6"/>
-        <v>4.7258979206049148</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" si="7"/>
-        <v>104.68691787198898</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>2.1057028876435901</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>12.24</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>40.78</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>38.33</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" si="8"/>
-        <v>1.0635006684294643</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>7.4051</v>
-      </c>
-      <c r="AO5" s="4">
-        <f t="shared" si="9"/>
-        <v>7.4051</v>
-      </c>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR5" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS5" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU5" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV5" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW5" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX5" s="4">
-        <f t="shared" si="17"/>
-        <v>104.68691787198898</v>
-      </c>
-      <c r="AY5" s="68">
-        <f t="shared" si="18"/>
-        <v>0.21521448500348755</v>
-      </c>
-      <c r="AZ5" s="67">
-        <f t="shared" si="19"/>
-        <v>9.4581280788177347E-2</v>
-      </c>
-      <c r="BA5" s="67">
-        <f t="shared" si="20"/>
-        <v>0.26106696935300799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>480</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="M6">
-        <f>0.123*1000/20</f>
-        <v>6.15</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3.8600000000000003</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="P6" s="66">
-        <v>0.03</v>
-      </c>
-      <c r="Q6" s="66">
-        <f t="shared" si="1"/>
-        <v>4.5306122448979593</v>
-      </c>
-      <c r="R6" s="66">
-        <v>21.02</v>
-      </c>
-      <c r="S6" s="66">
-        <v>20.75</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="2"/>
-        <v>3.3061224489795866</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="3"/>
-        <v>1.7843925134820737</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4452786295865496</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1089643966883851</v>
-      </c>
-      <c r="X6" s="4">
-        <f t="shared" si="6"/>
-        <v>4.5289855072463778</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="7"/>
-        <v>104.8164719814215</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>2.1484616148578102</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>8.09</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>12.56</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>38.840000000000003</v>
-      </c>
-      <c r="AF6" s="4">
-        <f t="shared" si="8"/>
-        <v>1.1199122001527526</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>7.4051</v>
-      </c>
-      <c r="AO6" s="4">
-        <f t="shared" si="9"/>
-        <v>7.4051</v>
-      </c>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU6" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW6" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX6" s="4">
-        <f t="shared" si="17"/>
-        <v>104.8164719814215</v>
-      </c>
-      <c r="AY6" s="68">
-        <f t="shared" si="18"/>
-        <v>0.19983538428324696</v>
-      </c>
-      <c r="AZ6" s="67">
-        <f t="shared" si="19"/>
-        <v>9.0621592148309713E-2</v>
-      </c>
-      <c r="BA6" s="67">
-        <f t="shared" si="20"/>
-        <v>0.26020665322580644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M7">
-        <f>0.119*1000/20</f>
-        <v>5.95</v>
-      </c>
-      <c r="N7" s="4">
-        <v>3.7600000000000002</v>
-      </c>
-      <c r="O7" s="66">
-        <v>0.43</v>
-      </c>
-      <c r="P7" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q7" s="66">
-        <f t="shared" si="1"/>
-        <v>4.7755102040816331</v>
-      </c>
-      <c r="R7" s="66">
-        <v>21</v>
-      </c>
-      <c r="S7" s="66">
-        <v>20.68</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="2"/>
-        <v>3.9183673469387799</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0842379504993507</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="4"/>
-        <v>2.5401650021710811</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0929198054171489</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="6"/>
-        <v>4.3478260869565224</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="7"/>
-        <v>105.03959294766638</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>2.2122171728752802</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>12.35</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>40.67</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>38.46</v>
-      </c>
-      <c r="AF7" s="4">
-        <f t="shared" si="8"/>
-        <v>1.1232713359726478</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>7.4051</v>
-      </c>
-      <c r="AO7" s="4">
-        <f t="shared" si="9"/>
-        <v>7.4051</v>
-      </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR7" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS7" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU7" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV7" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW7" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="4">
-        <f t="shared" si="17"/>
-        <v>105.03959294766638</v>
-      </c>
-      <c r="AY7" s="68">
-        <f t="shared" si="18"/>
-        <v>0.19694414893617021</v>
-      </c>
-      <c r="AZ7" s="67">
-        <f t="shared" si="19"/>
-        <v>9.3135111499781362E-2</v>
-      </c>
-      <c r="BA7" s="67">
-        <f t="shared" si="20"/>
-        <v>0.25992188484313972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>480</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="M8">
-        <f>0.081*1000/50</f>
-        <v>1.62</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6938775510204085</v>
-      </c>
-      <c r="R8" s="4">
-        <v>20.96</v>
-      </c>
-      <c r="S8" s="4">
-        <v>20.68</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="2"/>
-        <v>3.4285714285714426</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="3"/>
-        <v>5.0301810865191365</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="4"/>
-        <v>3.9522851394078766</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="5"/>
-        <v>1.5781890752580612</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="6"/>
-        <v>4.5289855072463769</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="7"/>
-        <v>89.567538512112051</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>8.6478806128069099</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>16.02</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>53.07</v>
-      </c>
-      <c r="AF8" s="4">
-        <f t="shared" si="8"/>
-        <v>3.1675584167833786</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>20.826899999999998</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>24.703700000000001</v>
-      </c>
-      <c r="AO8" s="4">
-        <f t="shared" si="9"/>
-        <v>3.8768000000000029</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR8" s="4">
-        <f t="shared" si="11"/>
-        <v>2.5407479322143781E-2</v>
-      </c>
-      <c r="AS8" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV8" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW8" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="4">
-        <f t="shared" si="17"/>
-        <v>90.37249527301185</v>
-      </c>
-      <c r="AY8" s="68">
-        <f t="shared" si="18"/>
-        <v>0.28438967136150256</v>
-      </c>
-      <c r="AZ8" s="67">
-        <f t="shared" si="19"/>
-        <v>0.25486259254611621</v>
-      </c>
-      <c r="BA8" s="67">
-        <f t="shared" si="20"/>
-        <v>0.40173815531258755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>460</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="M9">
-        <f>0.095*1000/50</f>
-        <v>1.9</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="1"/>
-        <v>2.4489795918367352</v>
-      </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="4">
-        <f t="shared" si="4"/>
-        <v>3.1689694511344917</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3638658909010692</v>
-      </c>
-      <c r="X9" s="4">
-        <f t="shared" si="6"/>
-        <v>4.7258979206049148</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="7"/>
-        <v>96.476584494235979</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>6.9697409396905003</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>18.53</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>10.31</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>52.47</v>
-      </c>
-      <c r="AF9" s="4">
-        <f t="shared" si="8"/>
-        <v>3.082494808266214</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4">
-        <v>20.905100000000001</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>3.78E-2</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>24.703700000000001</v>
-      </c>
-      <c r="AO9" s="4">
-        <f t="shared" si="9"/>
-        <v>3.7986000000000004</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4">
-        <f t="shared" si="11"/>
-        <v>2.7772566135737482E-2</v>
-      </c>
-      <c r="AS9" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV9" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4">
-        <f t="shared" si="17"/>
-        <v>97.494740543192847</v>
-      </c>
-      <c r="AY9" s="68">
-        <f t="shared" si="18"/>
-        <v>0.24576863354037268</v>
-      </c>
-      <c r="AZ9" s="67">
-        <f t="shared" si="19"/>
-        <v>0.262945188178833</v>
-      </c>
-      <c r="BA9" s="67">
-        <f t="shared" si="20"/>
-        <v>0.40528386734120297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>116</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44241</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>490</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="M10">
-        <f>0.096*1000/50</f>
-        <v>1.92</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="1"/>
-        <v>2.4489795918367352</v>
-      </c>
-      <c r="R10" s="4">
-        <v>20.96</v>
-      </c>
-      <c r="S10" s="4">
-        <v>20.67</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="2"/>
-        <v>3.551020408163255</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" ref="U10:U16" si="21">T10/(N10*I10)*1000</f>
-        <v>4.3656508583270899</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="4"/>
-        <v>3.0107936953980019</v>
-      </c>
-      <c r="W10" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3543607941016831</v>
-      </c>
-      <c r="X10" s="4">
-        <f t="shared" si="6"/>
-        <v>4.4365572315882869</v>
-      </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="7"/>
-        <v>91.646565664283813</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>9.4622460337255205</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>17.54</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>16.27</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>53.29</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="8"/>
-        <v>3.9562069405295213</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>20.7334</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>24.703700000000001</v>
-      </c>
-      <c r="AO10" s="4">
-        <f t="shared" si="9"/>
-        <v>3.9703000000000017</v>
-      </c>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="4">
-        <f t="shared" si="11"/>
-        <v>1.9475622970032781E-2</v>
-      </c>
-      <c r="AS10" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV10" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AW10" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AX10" s="4">
-        <f t="shared" si="17"/>
-        <v>92.365562517074082</v>
-      </c>
-      <c r="AY10" s="68">
-        <f t="shared" si="18"/>
-        <v>0.24405581509712329</v>
-      </c>
-      <c r="AZ10" s="67">
-        <f t="shared" si="19"/>
-        <v>0.24560966496450368</v>
-      </c>
-      <c r="BA10" s="67">
-        <f t="shared" si="20"/>
-        <v>0.39406189015890719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69">
-        <v>9</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="69">
-        <v>116</v>
-      </c>
-      <c r="E11" s="70">
-        <v>44173</v>
-      </c>
-      <c r="F11" s="69">
-        <v>1</v>
-      </c>
-      <c r="G11" s="69">
-        <v>1</v>
-      </c>
-      <c r="H11" s="69">
-        <v>1</v>
-      </c>
-      <c r="I11" s="69">
-        <v>470</v>
-      </c>
-      <c r="J11" s="69">
-        <v>50</v>
-      </c>
-      <c r="K11" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="71">
-        <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="M11" s="69">
-        <v>1.58</v>
-      </c>
-      <c r="N11" s="22">
-        <v>1.5139999999999987</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0.21</v>
-      </c>
-      <c r="P11" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="Q11" s="22">
-        <f t="shared" ref="Q11:Q16" si="22">(30/24.5)*(O11-P11)*0.01*1000</f>
-        <v>2.2040816326530615</v>
-      </c>
-      <c r="R11" s="22">
-        <v>20.93</v>
-      </c>
-      <c r="S11" s="22">
-        <v>20.57</v>
-      </c>
-      <c r="T11" s="22">
-        <f t="shared" ref="T11:T16" si="23">(30/24.5)*(R11-S11)*0.01*1000</f>
-        <v>4.4081632653061149</v>
-      </c>
-      <c r="U11" s="22">
-        <f t="shared" si="21"/>
-        <v>6.1948948330561837</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="4"/>
-        <v>3.0974474165280972</v>
-      </c>
-      <c r="W11" s="22">
-        <f t="shared" si="5"/>
-        <v>1.4279785501174362</v>
-      </c>
-      <c r="X11" s="22">
-        <f t="shared" si="6"/>
-        <v>4.6253469010175774</v>
-      </c>
-      <c r="Y11" s="22">
-        <f t="shared" ref="Y11:Y16" si="24">100*((V11+X11)/(6*W11))</f>
-        <v>90.136675102840954</v>
-      </c>
-      <c r="Z11" s="22">
-        <v>1.92961533939351</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>11.393282346079287</v>
-      </c>
-      <c r="AB11" s="22">
-        <v>4.129640786377939</v>
-      </c>
-      <c r="AC11" s="22">
-        <v>1.5629885974836262</v>
-      </c>
-      <c r="AD11" s="22">
-        <v>9.4665270235053587</v>
-      </c>
-      <c r="AE11" s="22">
-        <v>31.876313723389103</v>
-      </c>
-      <c r="AF11" s="22">
-        <f t="shared" si="8"/>
-        <v>0.79774927605520596</v>
-      </c>
-      <c r="AG11" s="22">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="AH11" s="22">
-        <v>21.852399999999999</v>
-      </c>
-      <c r="AI11" s="22">
-        <v>1.67E-2</v>
-      </c>
-      <c r="AJ11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="22">
-        <v>1.17E-2</v>
-      </c>
-      <c r="AL11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="22">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="AN11" s="22">
-        <v>25.514500000000002</v>
-      </c>
-      <c r="AO11" s="22">
-        <f t="shared" ref="AO11:AO16" si="25">AN11-AH11</f>
-        <v>3.6621000000000024</v>
-      </c>
-      <c r="AP11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="22">
-        <f t="shared" ref="AQ11:AQ16" si="26">(AG11*1000/192.124)*$L11/$N11</f>
-        <v>5.3031346399046607E-3</v>
-      </c>
-      <c r="AR11" s="22">
-        <f t="shared" ref="AR11:AR13" si="27">(AI11*1000/88.06)*$L11/$N11</f>
-        <v>1.3325516803278812E-2</v>
-      </c>
-      <c r="AS11" s="22">
-        <f t="shared" ref="AS11:AS13" si="28">(AJ11*1000/60.052)*$L11/$N11</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="22">
-        <f t="shared" ref="AT11:AT13" si="29">(AK11*1000/46.07)*$L11/$N11</f>
-        <v>1.7844891870418187E-2</v>
-      </c>
-      <c r="AU11" s="22">
-        <f t="shared" ref="AU11:AU13" si="30">(AL11*1000/92.09)*$L11/$N11</f>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="22">
-        <f t="shared" ref="AV11:AV13" si="31">(AM11*1000/118.09)*$L11/$N11</f>
-        <v>1.7850665148271648E-4</v>
-      </c>
-      <c r="AW11" s="22">
-        <f t="shared" ref="AW11:AW13" si="32">(AP11*1000/118.09)*$L11/$N11</f>
-        <v>0</v>
-      </c>
-      <c r="AX11" s="22">
-        <f t="shared" ref="AX11:AX16" si="33">100*((V11+X11+AQ11*6+AR11*3+AS11*2+AT11*2+AU11*3+AV11*4+AW11*5)/(6*W11))</f>
-        <v>91.399522837109942</v>
-      </c>
-      <c r="AY11" s="22">
-        <f t="shared" si="18"/>
-        <v>0.25732173473116204</v>
-      </c>
-      <c r="AZ11" s="71">
-        <f t="shared" si="19"/>
-        <v>0.28492553092979445</v>
-      </c>
-      <c r="BA11" s="71">
-        <f t="shared" si="20"/>
-        <v>0.36179053917975784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69">
-        <v>10</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="69">
-        <v>116</v>
-      </c>
-      <c r="E12" s="70">
-        <v>44173</v>
-      </c>
-      <c r="F12" s="69">
-        <v>1</v>
-      </c>
-      <c r="G12" s="69">
-        <v>2</v>
-      </c>
-      <c r="H12" s="69">
-        <v>2</v>
-      </c>
-      <c r="I12" s="69">
-        <v>480</v>
-      </c>
-      <c r="J12" s="69">
-        <v>50</v>
-      </c>
-      <c r="K12" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="71">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="M12" s="69">
-        <v>1.6</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1.5360000000000014</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="P12" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="Q12" s="22">
-        <f t="shared" si="22"/>
-        <v>2.3265306122448983</v>
-      </c>
-      <c r="R12" s="22">
-        <v>20.93</v>
-      </c>
-      <c r="S12" s="22">
-        <v>20.59</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="23"/>
-        <v>4.1632653061224474</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" si="21"/>
-        <v>5.6467899659863878</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="4"/>
-        <v>3.1555590986394533</v>
-      </c>
-      <c r="W12" s="22">
-        <f t="shared" si="5"/>
-        <v>1.5596744237691138</v>
-      </c>
-      <c r="X12" s="22">
-        <f t="shared" si="6"/>
-        <v>4.5289855072463778</v>
-      </c>
-      <c r="Y12" s="22">
-        <f t="shared" si="24"/>
-        <v>82.116973568061908</v>
-      </c>
-      <c r="Z12" s="22">
-        <v>1.1999722722122548</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>7.5924479327848493</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>2.3553373026955171</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>0.38986125811136813</v>
-      </c>
-      <c r="AD12" s="22">
-        <v>7.6882901847279186</v>
-      </c>
-      <c r="AE12" s="22">
-        <v>18.837211524040846</v>
-      </c>
-      <c r="AF12" s="22">
-        <f t="shared" si="8"/>
-        <v>0.44474517050358914</v>
-      </c>
-      <c r="AG12" s="22">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="AH12" s="22">
-        <v>21.370200000000001</v>
-      </c>
-      <c r="AI12" s="22">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="AJ12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AL12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="22">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AN12" s="22">
-        <v>25.514500000000002</v>
-      </c>
-      <c r="AO12" s="22">
-        <f t="shared" si="25"/>
-        <v>4.1443000000000012</v>
-      </c>
-      <c r="AP12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="22">
-        <f t="shared" si="26"/>
-        <v>4.4829062039504538E-3</v>
-      </c>
-      <c r="AR12" s="22">
-        <f t="shared" si="27"/>
-        <v>1.4401259518447007E-2</v>
-      </c>
-      <c r="AS12" s="22">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="22">
-        <f t="shared" si="29"/>
-        <v>4.4161172310252473E-3</v>
-      </c>
-      <c r="AU12" s="22">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AV12" s="22">
-        <f t="shared" si="31"/>
-        <v>3.4456858469528862E-4</v>
-      </c>
-      <c r="AW12" s="22">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AX12" s="22">
-        <f t="shared" si="33"/>
-        <v>82.975183924402316</v>
-      </c>
-      <c r="AY12" s="22">
-        <f t="shared" si="18"/>
-        <v>0.28105333116319425</v>
-      </c>
-      <c r="AZ12" s="71">
-        <f t="shared" si="19"/>
-        <v>0.27638771808975604</v>
-      </c>
-      <c r="BA12" s="71">
-        <f t="shared" si="20"/>
-        <v>0.36959506166501666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69">
-        <v>12</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="69">
-        <v>116</v>
-      </c>
-      <c r="E13" s="70">
-        <v>44173</v>
-      </c>
-      <c r="F13" s="69">
-        <v>1</v>
-      </c>
-      <c r="G13" s="69">
-        <v>4</v>
-      </c>
-      <c r="H13" s="69">
-        <v>4</v>
-      </c>
-      <c r="I13" s="69">
-        <v>490</v>
-      </c>
-      <c r="J13" s="69">
-        <v>50</v>
-      </c>
-      <c r="K13" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="71">
-        <f t="shared" si="0"/>
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="M13" s="69">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="N13" s="22">
-        <v>1.5859999999999985</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="Q13" s="22">
-        <f t="shared" si="22"/>
-        <v>2.4489795918367352</v>
-      </c>
-      <c r="R13" s="22">
-        <v>20.87</v>
-      </c>
-      <c r="S13" s="22">
-        <v>20.57</v>
-      </c>
-      <c r="T13" s="22">
-        <f t="shared" si="23"/>
-        <v>3.6734693877551106</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="21"/>
-        <v>4.726908134641266</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="4"/>
-        <v>3.1512720897608379</v>
-      </c>
-      <c r="W13" s="22">
-        <f t="shared" si="5"/>
-        <v>1.5160957433010103</v>
-      </c>
-      <c r="X13" s="22">
-        <f t="shared" si="6"/>
-        <v>4.4365572315882877</v>
-      </c>
-      <c r="Y13" s="22">
-        <f t="shared" si="24"/>
-        <v>83.414139628896052</v>
-      </c>
-      <c r="Z13" s="22">
-        <v>2.1743847341948555</v>
-      </c>
-      <c r="AA13" s="22">
-        <v>16.330885878169877</v>
-      </c>
-      <c r="AB13" s="22">
-        <v>4.6394083665782517</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>3.6074392463589335</v>
-      </c>
-      <c r="AD13" s="22">
-        <v>11.768378292430993</v>
-      </c>
-      <c r="AE13" s="22">
-        <v>32.625371985122683</v>
-      </c>
-      <c r="AF13" s="22">
-        <f t="shared" si="8"/>
-        <v>0.81213625707864168</v>
-      </c>
-      <c r="AG13" s="22">
-        <v>1.72E-2</v>
-      </c>
-      <c r="AH13" s="22">
-        <v>21.2682</v>
-      </c>
-      <c r="AI13" s="22">
-        <v>1.77E-2</v>
-      </c>
-      <c r="AJ13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="22">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="AL13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="22">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AN13" s="22">
-        <v>25.514500000000002</v>
-      </c>
-      <c r="AO13" s="22">
-        <f t="shared" si="25"/>
-        <v>4.2463000000000015</v>
-      </c>
-      <c r="AP13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="22">
-        <f t="shared" si="26"/>
-        <v>5.7599348104402058E-3</v>
-      </c>
-      <c r="AR13" s="22">
-        <f t="shared" si="27"/>
-        <v>1.2931989001105185E-2</v>
-      </c>
-      <c r="AS13" s="22">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="22">
-        <f t="shared" si="29"/>
-        <v>2.2763557431553255E-2</v>
-      </c>
-      <c r="AU13" s="22">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AV13" s="22">
-        <f t="shared" si="31"/>
-        <v>3.2689544499593746E-4</v>
-      </c>
-      <c r="AW13" s="22">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AX13" s="22">
-        <f t="shared" si="33"/>
-        <v>84.735409223732205</v>
-      </c>
-      <c r="AY13" s="22">
-        <f t="shared" si="18"/>
-        <v>0.27320045294284206</v>
-      </c>
-      <c r="AZ13" s="71">
-        <f t="shared" si="19"/>
-        <v>0.40662942539017805</v>
-      </c>
-      <c r="BA13" s="71">
-        <f t="shared" si="20"/>
-        <v>0.43687030368906621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>116</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44181</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>480</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ref="L14:L16" si="34">J14/I14</f>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="M14">
-        <v>1.28</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1.4479999999999991</v>
-      </c>
-      <c r="O14" s="66">
-        <v>0.2</v>
-      </c>
-      <c r="P14" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q14" s="66">
-        <f t="shared" si="22"/>
-        <v>1.9591836734693882</v>
-      </c>
-      <c r="R14" s="66">
-        <v>20.89</v>
-      </c>
-      <c r="S14" s="66">
-        <v>20.54</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="23"/>
-        <v>4.2857142857143034</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="21"/>
-        <v>6.1661404893449392</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="4"/>
-        <v>2.8188070808433898</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0511296278127642</v>
-      </c>
-      <c r="X14" s="4">
-        <f t="shared" si="6"/>
-        <v>4.5289855072463769</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="24"/>
-        <v>116.50628672347752</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>1.7796980578099666</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>9.3928992997141982</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>1.9216176837310417</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>2.0542991814184957</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>8.4663136141972952</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>29.704925975115572</v>
-      </c>
-      <c r="AF14" s="4">
-        <f t="shared" si="8"/>
-        <v>0.9787325437557276</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>22.7319</v>
-      </c>
-      <c r="AI14" s="4">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="4">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>25.364899999999999</v>
-      </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="25"/>
-        <v>2.6329999999999991</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>0.2089</v>
-      </c>
-      <c r="AQ14" s="4">
-        <f t="shared" si="26"/>
-        <v>4.8676790729805328E-3</v>
-      </c>
-      <c r="AR14" s="4">
-        <f>(AI14*1000/88.06)*$L14/$N14</f>
-        <v>8.7410841595112043E-3</v>
-      </c>
-      <c r="AS14" s="4">
-        <f>(AJ14*1000/60.052)*$L14/$N14</f>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="4">
-        <f>(AK14*1000/46.07)*$L14/$N14</f>
-        <v>2.4671700243164296E-2</v>
-      </c>
-      <c r="AU14" s="4">
-        <f>(AL14*1000/92.09)*$L14/$N14</f>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="4">
-        <f>(AM14*1000/118.09)*$L14/$N14</f>
-        <v>1.2122722360992273E-2</v>
-      </c>
-      <c r="AW14" s="4">
-        <f>(AP14*1000/118.09)*$L14/$N14</f>
-        <v>0.12725812568900932</v>
-      </c>
-      <c r="AX14" s="4">
-        <f t="shared" si="33"/>
-        <v>129.02542525153103</v>
-      </c>
-      <c r="AY14" s="68">
-        <f t="shared" si="18"/>
-        <v>0.1894135589318601</v>
-      </c>
-      <c r="AZ14" s="67">
-        <f t="shared" si="19"/>
-        <v>0.285517153421468</v>
-      </c>
-      <c r="BA14" s="67">
-        <f t="shared" si="20"/>
-        <v>0.28127695313003076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15">
-        <v>116</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44181</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>490</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="34"/>
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="M15">
-        <v>1.36</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1.4039999999999992</v>
-      </c>
-      <c r="O15" s="66">
-        <v>0.21</v>
-      </c>
-      <c r="P15" s="66">
-        <v>0.03</v>
-      </c>
-      <c r="Q15" s="66">
-        <f t="shared" si="22"/>
-        <v>2.2040816326530615</v>
-      </c>
-      <c r="R15" s="65">
-        <v>20.89</v>
-      </c>
-      <c r="S15" s="65">
-        <v>21.76</v>
-      </c>
-      <c r="T15" s="65">
-        <f t="shared" si="23"/>
-        <v>-10.653061224489809</v>
-      </c>
-      <c r="U15" s="65">
-        <f t="shared" si="21"/>
-        <v>-15.48500090774146</v>
-      </c>
-      <c r="V15" s="4">
-        <f t="shared" si="4"/>
-        <v>3.2037932912568508</v>
-      </c>
-      <c r="W15" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2451360160255045</v>
-      </c>
-      <c r="X15" s="4">
-        <f t="shared" si="6"/>
-        <v>4.4365572315882877</v>
-      </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="24"/>
-        <v>102.26928925180489</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1.8299122164079413</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>11.819828177496907</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>2.3274955479170401</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>1.979853201450166</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>7.7261858630569096</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>27.530572246813939</v>
-      </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="8"/>
-        <v>0.83220936506761756</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>22.277699999999999</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>1.18E-2</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="4">
-        <v>2.3E-3</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>25.364899999999999</v>
-      </c>
-      <c r="AO15" s="4">
-        <f t="shared" si="25"/>
-        <v>3.0871999999999993</v>
-      </c>
-      <c r="AP15" s="4">
-        <v>0.20069999999999999</v>
-      </c>
-      <c r="AQ15" s="4">
-        <f t="shared" si="26"/>
-        <v>1.8536224319988981E-3</v>
-      </c>
-      <c r="AR15" s="4">
-        <f>(AI15*1000/88.06)*$L15/$N15</f>
-        <v>9.7389052971285917E-3</v>
-      </c>
-      <c r="AS15" s="4">
-        <f>(AJ15*1000/60.052)*$L15/$N15</f>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="4">
-        <f>(AK15*1000/46.07)*$L15/$N15</f>
-        <v>3.6284107108008638E-3</v>
-      </c>
-      <c r="AU15" s="4">
-        <f>(AL15*1000/92.09)*$L15/$N15</f>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="4">
-        <f>(AM15*1000/118.09)*$L15/$N15</f>
-        <v>1.3109112706272266E-2</v>
-      </c>
-      <c r="AW15" s="4">
-        <f t="shared" ref="AW15:AW16" si="35">(AP15*1000/118.09)*$L15/$N15</f>
-        <v>0.12352107606332596</v>
-      </c>
-      <c r="AX15" s="4">
-        <f t="shared" si="33"/>
-        <v>111.87516220879333</v>
-      </c>
-      <c r="AY15" s="68">
-        <f t="shared" si="18"/>
-        <v>0.22437351008779588</v>
-      </c>
-      <c r="AZ15" s="67">
-        <f t="shared" si="19"/>
-        <v>0.3671665667381856</v>
-      </c>
-      <c r="BA15" s="67">
-        <f t="shared" si="20"/>
-        <v>0.37993048312408467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44181</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>470</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>0.1</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="34"/>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="M16">
-        <v>1.34</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1.5960000000000008</v>
-      </c>
-      <c r="O16" s="66">
-        <v>0.21</v>
-      </c>
-      <c r="P16" s="66">
-        <v>0.04</v>
-      </c>
-      <c r="Q16" s="66">
-        <f t="shared" si="22"/>
-        <v>2.0816326530612246</v>
-      </c>
-      <c r="R16" s="66">
-        <v>20.9</v>
-      </c>
-      <c r="S16" s="66">
-        <v>20.5</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="23"/>
-        <v>4.8979591836734517</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="21"/>
-        <v>6.5295675140956773</v>
-      </c>
-      <c r="V16" s="4">
-        <f t="shared" si="4"/>
-        <v>2.7750661934906726</v>
-      </c>
-      <c r="W16" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1430653522369452</v>
-      </c>
-      <c r="X16" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6253469010175765</v>
-      </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="24"/>
-        <v>107.90303284097536</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>1.6694023251189356</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>10.021283256331222</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>1.2595507379809849</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>1.3722874672682983</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>9.9194402472960785</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>30.714760508919859</v>
-      </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.86219859908414442</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>7.6E-3</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>22.274699999999999</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AJ16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="AL16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="4">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AN16" s="4">
-        <v>25.364899999999999</v>
-      </c>
-      <c r="AO16" s="4">
-        <f t="shared" si="25"/>
-        <v>3.0901999999999994</v>
-      </c>
-      <c r="AP16" s="4">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="AQ16" s="4">
-        <f t="shared" si="26"/>
-        <v>2.6367638242415911E-3</v>
-      </c>
-      <c r="AR16" s="4">
-        <f>(AI16*1000/88.06)*$L16/$N16</f>
-        <v>7.5693847043372259E-3</v>
-      </c>
-      <c r="AS16" s="4">
-        <f>(AJ16*1000/60.052)*$L16/$N16</f>
-        <v>0</v>
-      </c>
-      <c r="AT16" s="4">
-        <f>(AK16*1000/46.07)*$L16/$N16</f>
-        <v>1.5047154715573987E-2</v>
-      </c>
-      <c r="AU16" s="4">
-        <f>(AL16*1000/92.09)*$L16/$N16</f>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="4">
-        <f>(AM16*1000/118.09)*$L16/$N16</f>
-        <v>9.3134391409560036E-3</v>
-      </c>
-      <c r="AW16" s="4">
-        <f t="shared" si="35"/>
-        <v>0.10233494037911052</v>
-      </c>
-      <c r="AX16" s="4">
-        <f t="shared" si="33"/>
-        <v>116.90735185243078</v>
-      </c>
-      <c r="AY16" s="68">
-        <f t="shared" si="18"/>
-        <v>0.20598037647309753</v>
-      </c>
-      <c r="AZ16" s="67">
-        <f t="shared" si="19"/>
-        <v>0.27196348661154746</v>
-      </c>
-      <c r="BA16" s="67">
-        <f t="shared" si="20"/>
-        <v>0.26854979959989894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69">
-        <v>75</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="69">
-        <v>116</v>
-      </c>
-      <c r="E18" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="69">
-        <v>470</v>
-      </c>
-      <c r="J18" s="69">
-        <v>50</v>
-      </c>
-      <c r="K18" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="L18" s="22">
-        <f>J18/I18</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="M18" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="N18" s="22">
-        <v>1.24</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0.21</v>
-      </c>
-      <c r="P18" s="69">
-        <v>0.03</v>
-      </c>
-      <c r="Q18" s="22">
-        <f t="shared" ref="Q18:Q19" si="36">(30/24.5)*(O18-P18)*0.01*1000</f>
-        <v>2.2040816326530615</v>
-      </c>
-      <c r="V18" s="22">
-        <f>Q18/(N18*I18)*1000</f>
-        <v>3.7818833779222061</v>
-      </c>
-      <c r="W18" s="22">
-        <f>(AO18*1000/180.2)*L18/N18</f>
-        <v>1.4433364286002668</v>
-      </c>
-      <c r="X18" s="22">
-        <f>N18/23*1000*L18/N18</f>
-        <v>4.6253469010175765</v>
-      </c>
-      <c r="Y18" s="72">
-        <f>100*((V18+X18)/(6*W18))</f>
-        <v>97.080972857370355</v>
-      </c>
-      <c r="Z18" s="73">
-        <v>5.2495057488951202</v>
-      </c>
-      <c r="AA18" s="69">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="AB18" s="69">
-        <v>9.24</v>
-      </c>
-      <c r="AC18" s="69">
-        <v>1.7</v>
-      </c>
-      <c r="AD18" s="69">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="AE18" s="69">
-        <v>52.96</v>
-      </c>
-      <c r="AF18" s="22">
-        <f>Z18*N18/AO18</f>
-        <v>2.1471787599386287</v>
-      </c>
-      <c r="AG18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="22">
-        <v>21.607199999999999</v>
-      </c>
-      <c r="AI18" s="22">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="AJ18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="22">
-        <v>24.6388</v>
-      </c>
-      <c r="AO18" s="22">
-        <f t="shared" ref="AO18:AO19" si="37">AN18-AH18</f>
-        <v>3.031600000000001</v>
-      </c>
-      <c r="AY18" s="22">
-        <f>AO18*L18/N18</f>
-        <v>0.26008922443376814</v>
-      </c>
-      <c r="AZ18" s="71">
-        <f>(AA18+AC18)/(AB18+AD18+AE18)</f>
-        <v>0.25332163449486089</v>
-      </c>
-      <c r="BA18" s="71">
-        <f>(AA18+AB18)/(AC18+AD18+AE18)</f>
-        <v>0.38413621262458475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69">
-        <v>76</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="69">
-        <v>116</v>
-      </c>
-      <c r="E19" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="69">
-        <v>470</v>
-      </c>
-      <c r="J19" s="69">
-        <v>50</v>
-      </c>
-      <c r="K19" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="22">
-        <f>J19/I19</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="M19" s="22">
-        <v>1.73</v>
-      </c>
-      <c r="N19" s="22">
-        <v>1.42</v>
-      </c>
-      <c r="O19" s="22">
-        <v>0.21</v>
-      </c>
-      <c r="P19" s="69">
-        <v>0.03</v>
-      </c>
-      <c r="Q19" s="22">
-        <f t="shared" si="36"/>
-        <v>2.2040816326530615</v>
-      </c>
-      <c r="V19" s="22">
-        <f>Q19/(N19*I19)*1000</f>
-        <v>3.3024897102982642</v>
-      </c>
-      <c r="W19" s="22">
-        <f>(AO19*1000/180.2)*L19/N19</f>
-        <v>1.251689179638247</v>
-      </c>
-      <c r="X19" s="22">
-        <f>N19/23*1000*L19/N19</f>
-        <v>4.6253469010175765</v>
-      </c>
-      <c r="Y19" s="72">
-        <f>100*((V19+X19)/(6*W19))</f>
-        <v>105.56183782525362</v>
-      </c>
-      <c r="Z19" s="73">
-        <v>6.5403549328781603</v>
-      </c>
-      <c r="AA19" s="69">
-        <v>16.91</v>
-      </c>
-      <c r="AB19" s="69">
-        <v>10.41</v>
-      </c>
-      <c r="AC19" s="69">
-        <v>1.61</v>
-      </c>
-      <c r="AD19" s="69">
-        <v>18.27</v>
-      </c>
-      <c r="AE19" s="69">
-        <v>52.8</v>
-      </c>
-      <c r="AF19" s="22">
-        <f>Z19*N19/AO19</f>
-        <v>3.0847656706702717</v>
-      </c>
-      <c r="AG19" s="22">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="AH19" s="22">
-        <v>21.6281</v>
-      </c>
-      <c r="AI19" s="22">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="AJ19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="22">
-        <v>24.6388</v>
-      </c>
-      <c r="AO19" s="22">
-        <f t="shared" si="37"/>
-        <v>3.0106999999999999</v>
-      </c>
-      <c r="AY19" s="22">
-        <f>AO19*L19/N19</f>
-        <v>0.22555439017081211</v>
-      </c>
-      <c r="AZ19" s="71">
-        <f>(AA19+AC19)/(AB19+AD19+AE19)</f>
-        <v>0.22729504172803144</v>
-      </c>
-      <c r="BA19" s="71">
-        <f>(AA19+AB19)/(AC19+AD19+AE19)</f>
-        <v>0.37589433131535505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23">
-        <v>76.357668669999995</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24">
-        <v>123.241112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25">
-        <v>135.70506800000001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA25" s="25"/>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26">
-        <v>308.41123470000002</v>
-      </c>
-      <c r="AA26" s="25"/>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="P27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA27" s="25"/>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA28" s="25"/>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="AA29" s="25"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA30" s="25"/>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>